--- a/data/Citations.xlsx
+++ b/data/Citations.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="688">
   <si>
     <t>Auteur</t>
   </si>
@@ -2089,6 +2089,39 @@
   </si>
   <si>
     <t>Les prétendues "révolutions" ne peuvent être entendues qu'au sens astronomique de ce mot qui signifie : mouvement des corps autour d'un centre de gravité. Lequel [est] toujours le même […] : le pouvoir.</t>
+  </si>
+  <si>
+    <t>Médine</t>
+  </si>
+  <si>
+    <t>On ne coupe pas la ficelle tant qu'on peut défaire les nœuds.</t>
+  </si>
+  <si>
+    <t>Je m'en remets aux Dieux. Je ne les ai jamais tracassés de prières. Je ne pense pas qu'ils me tracasseront.</t>
+  </si>
+  <si>
+    <t>Rudyard Kipling</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Dans cette guerre, il meurt comme il pleut.</t>
+  </si>
+  <si>
+    <t>Alexis Jenny</t>
+  </si>
+  <si>
+    <t>L'Art Français de la Guerre</t>
+  </si>
+  <si>
+    <t>But you will. You will think of things. And I'll get bored with you and feel trapped beacause that's what happens with me. // Okay.</t>
+  </si>
+  <si>
+    <t>Charlie Kaufman</t>
+  </si>
+  <si>
+    <t>Eternal Sunshine of the Spotless Mind</t>
   </si>
 </sst>
 </file>
@@ -2612,11 +2645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G353"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8660,13 +8693,63 @@
       </c>
     </row>
     <row r="352" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C352" s="6"/>
-      <c r="E352" s="20"/>
-      <c r="F352" s="13"/>
-    </row>
-    <row r="353" spans="5:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A352" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="B352" s="25"/>
+      <c r="C352" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E352" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="F352" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A353" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="B353" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="E353" s="20"/>
-      <c r="F353" s="13"/>
+      <c r="F353" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A354" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="C354" s="6"/>
+      <c r="D354" s="25"/>
+      <c r="E354" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F354" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A355" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B355" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="C355" s="6"/>
+      <c r="E355" s="20"/>
+      <c r="F355" s="13" t="s">
+        <v>685</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F351"/>
